--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Developed template for log of hours worked for each team member. Recored own work hours.</t>
+  </si>
+  <si>
+    <t>Purchased 3" three-ring binder and two packs of 8-tab separators.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Began high-level design of backend and described high-level frontend features.</t>
   </si>
 </sst>
 </file>
@@ -345,12 +351,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,11 +359,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -373,70 +436,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,13 +763,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -771,127 +777,127 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="6" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="18">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="20">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="12">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="16">
+        <v>41665</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="12">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>41667</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -899,411 +905,421 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="20">
-        <v>1.17</v>
+      <c r="I11" s="12">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="16">
+        <v>41667</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="16">
+        <v>41670</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="12">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="20"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="37"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="35"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="6" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="37"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="20"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="20"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="20"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="5"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17">
+      <c r="G46" s="36"/>
+      <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="I46" s="17"/>
+        <v>13.95</v>
+      </c>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="I47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
@@ -1313,36 +1329,38 @@
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Began high-level design of backend and described high-level frontend features.</t>
+  </si>
+  <si>
+    <t>Created initial tentative prototype with extremely limited functionality (mostly message boxes).</t>
   </si>
 </sst>
 </file>
@@ -397,36 +400,45 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -435,15 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +752,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,13 +766,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -777,15 +780,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -794,15 +797,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -811,15 +814,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -828,15 +831,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="12">
         <v>0.6</v>
       </c>
@@ -845,15 +848,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -862,15 +865,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -879,15 +882,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -896,15 +899,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -913,15 +916,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -930,364 +933,370 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="16">
+        <v>41670</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,15 +1309,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>13.95</v>
-      </c>
-      <c r="I46" s="37"/>
+        <v>15.95</v>
+      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1317,6 +1326,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
@@ -1333,34 +1370,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Created initial tentative prototype with extremely limited functionality (mostly message boxes).</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Worked on refining tentative prototype model for client critique at the next client meeting.</t>
   </si>
 </sst>
 </file>
@@ -400,6 +403,18 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -409,13 +424,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -423,30 +450,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +755,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,13 +769,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -780,15 +783,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -797,15 +800,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -814,15 +817,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -831,15 +834,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="12">
         <v>0.6</v>
       </c>
@@ -848,15 +851,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -865,15 +868,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -882,15 +885,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -899,15 +902,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -916,15 +919,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -933,15 +936,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -950,353 +953,359 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="16">
+        <v>41674</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="12">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,15 +1318,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29">
+      <c r="G46" s="36"/>
+      <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>15.95</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>18.2</v>
+      </c>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1326,6 +1335,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1342,34 +1379,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Worked on refining tentative prototype model for client critique at the next client meeting.</t>
+  </si>
+  <si>
+    <t>Modified and updated prototype for client meeting.</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <v>41674</v>
+        <v>41673</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>14</v>
@@ -984,26 +987,38 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="16">
+        <v>41674</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="16">
+        <v>41674</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="12">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
@@ -1324,7 +1339,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>18.2</v>
+        <v>21.349999999999998</v>
       </c>
       <c r="I46" s="37"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Modified and updated prototype for client meeting.</t>
+  </si>
+  <si>
+    <t>Created initial draft of specifications document. Began drafting the introductory sections.</t>
+  </si>
+  <si>
+    <t>Read IEEE Standard 830-1998 recommendations for specifications documents. Updated specifications document to version 1.0.1 to include definitions, acronyms, abbreviations, update procedures, and appendices.</t>
+  </si>
+  <si>
+    <t>Impromptu team meeting. Recorded meeting minutes. Set times for next two team meetings.</t>
   </si>
 </sst>
 </file>
@@ -757,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,37 +1030,55 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="16">
+        <v>41675</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="26"/>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>41676</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="16">
+        <v>41676</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
@@ -1339,7 +1366,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>21.349999999999998</v>
+        <v>26.099999999999998</v>
       </c>
       <c r="I46" s="37"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Impromptu team meeting. Recorded meeting minutes. Set times for next two team meetings.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Continued drafting software requirements specification document. Discussed high-level design problems and solutions. Developed additional client questions.</t>
+  </si>
+  <si>
+    <t>Heavily updated software requirements specification document by adding sections and updating information.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Continued drafting software requirements specification document. Contributed to prototype user interface color scheme discussions.</t>
+  </si>
+  <si>
+    <t>Completed the first major draft revision of the software requirements specification document.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -462,6 +474,9 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,7 +871,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
       <c r="I7" s="12">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1081,48 +1096,72 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="16">
+        <v>41677</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="16">
+        <v>41677</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="12">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="16">
+        <v>41678</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="38">
+        <v>41678</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="21">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
@@ -1366,7 +1405,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>26.099999999999998</v>
+        <v>36.75</v>
       </c>
       <c r="I46" s="37"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Completed the first major draft revision of the software requirements specification document.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document as per Travis's comments and suggestions. Drafted programming language proposal.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -421,12 +424,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,9 +477,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="21">
         <v>41678</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -1159,7 +1159,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
@@ -1192,26 +1192,38 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21">
+        <v>41683</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="20">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="16">
+        <v>41683</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
@@ -1405,7 +1417,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>36.75</v>
+        <v>38.75</v>
       </c>
       <c r="I46" s="37"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>Updated the software requirements specification document as per Travis's comments and suggestions. Drafted programming language proposal.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document to be in accordance with the client's elucidated requirements.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the changes described by team members.</t>
+  </si>
+  <si>
+    <t>Client meeting. Recorded meeting minutes and client's critiques of the software requirements specification document. Transcribed team members' reports of client's critiques onto the meeting minutes.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the client's criticisms.</t>
+  </si>
+  <si>
+    <t>Updated the prototype. Updated the software requirements specification document according to the client's criticisms.</t>
   </si>
 </sst>
 </file>
@@ -430,36 +445,45 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -468,15 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:H30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,13 +811,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -810,15 +825,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -827,15 +842,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -844,15 +859,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -861,15 +876,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -878,15 +893,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -895,15 +910,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -912,15 +927,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -929,15 +944,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -946,15 +961,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -963,15 +978,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -980,15 +995,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -997,15 +1012,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1014,15 +1029,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1031,15 +1046,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1048,15 +1063,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1065,15 +1080,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1082,15 +1097,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1099,15 +1114,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1116,15 +1131,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1133,15 +1148,15 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
@@ -1150,43 +1165,43 @@
       <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1195,15 +1210,15 @@
       <c r="A27" s="21">
         <v>41683</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="20">
         <v>0.75</v>
       </c>
@@ -1212,193 +1227,223 @@
       <c r="A28" s="16">
         <v>41683</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="12">
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="16">
+        <v>41684</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="12"/>
+      <c r="A30" s="16">
+        <v>41686</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>41688</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="12"/>
+      <c r="A32" s="16">
+        <v>41688</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="16">
+        <v>41689</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,15 +1456,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>38.75</v>
-      </c>
-      <c r="I46" s="37"/>
+        <v>47.25</v>
+      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1428,6 +1473,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
@@ -1444,34 +1517,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Updated the prototype. Updated the software requirements specification document according to the client's criticisms.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document to include the testing plan.</t>
   </si>
 </sst>
 </file>
@@ -445,6 +448,18 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -454,13 +469,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -468,30 +495,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:H35"/>
     </sheetView>
   </sheetViews>
@@ -811,13 +814,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -825,15 +828,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -842,15 +845,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -859,15 +862,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -876,15 +879,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -893,15 +896,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -910,15 +913,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -927,15 +930,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -944,15 +947,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -961,15 +964,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -978,15 +981,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -995,15 +998,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -1012,15 +1015,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1029,15 +1032,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1046,15 +1049,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1063,15 +1066,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1080,15 +1083,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1097,15 +1100,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1114,15 +1117,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1131,15 +1134,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1148,15 +1151,15 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
@@ -1165,43 +1168,43 @@
       <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1210,15 +1213,15 @@
       <c r="A27" s="21">
         <v>41683</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="20">
         <v>0.75</v>
       </c>
@@ -1227,15 +1230,15 @@
       <c r="A28" s="16">
         <v>41683</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="12">
         <v>1.25</v>
       </c>
@@ -1244,15 +1247,15 @@
       <c r="A29" s="16">
         <v>41684</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="12">
         <v>1.5</v>
       </c>
@@ -1261,15 +1264,15 @@
       <c r="A30" s="16">
         <v>41686</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="12">
         <v>0.5</v>
       </c>
@@ -1278,15 +1281,15 @@
       <c r="A31" s="16">
         <v>41688</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="12">
         <v>1.25</v>
       </c>
@@ -1295,15 +1298,15 @@
       <c r="A32" s="16">
         <v>41688</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="12">
         <v>1.25</v>
       </c>
@@ -1312,138 +1315,144 @@
       <c r="A33" s="16">
         <v>41689</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="16">
+        <v>41691</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,15 +1465,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29">
+      <c r="G46" s="36"/>
+      <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>47.25</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>48.25</v>
+      </c>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1473,6 +1482,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1489,34 +1526,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Updated the software requirements specification document to include the testing plan.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the team's criticisms.</t>
+  </si>
+  <si>
+    <t>Client meeting. Recorded meeting minutes and client feedback. Also recorded team milestones.</t>
+  </si>
+  <si>
+    <t>Finished recording meeting minutes. Updated the software requirements specification document in accordance with the client's feedback.</t>
   </si>
 </sst>
 </file>
@@ -799,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:H35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1346,37 +1355,55 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="16">
+        <v>41692</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="16">
+        <v>41695</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="16">
+        <v>41697</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
@@ -1471,7 +1498,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>48.25</v>
+        <v>51</v>
       </c>
       <c r="I46" s="37"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Finished recording meeting minutes. Updated the software requirements specification document in accordance with the client's feedback.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document in accordance with team members' feedback.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Created formal architectural designs from meeting notes.</t>
   </si>
 </sst>
 </file>
@@ -457,36 +463,45 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,15 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:H38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,13 +829,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -837,15 +843,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -854,15 +860,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -871,15 +877,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -888,15 +894,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -905,15 +911,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -922,15 +928,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -939,15 +945,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -956,15 +962,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -973,15 +979,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -990,15 +996,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -1007,15 +1013,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -1024,15 +1030,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1041,15 +1047,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1058,15 +1064,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1075,15 +1081,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1092,15 +1098,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1109,15 +1115,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1126,15 +1132,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1143,15 +1149,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1160,15 +1166,15 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
@@ -1177,43 +1183,43 @@
       <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1222,15 +1228,15 @@
       <c r="A27" s="21">
         <v>41683</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="20">
         <v>0.75</v>
       </c>
@@ -1239,15 +1245,15 @@
       <c r="A28" s="16">
         <v>41683</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="12">
         <v>1.25</v>
       </c>
@@ -1256,15 +1262,15 @@
       <c r="A29" s="16">
         <v>41684</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="12">
         <v>1.5</v>
       </c>
@@ -1273,15 +1279,15 @@
       <c r="A30" s="16">
         <v>41686</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="12">
         <v>0.5</v>
       </c>
@@ -1290,15 +1296,15 @@
       <c r="A31" s="16">
         <v>41688</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="12">
         <v>1.25</v>
       </c>
@@ -1307,15 +1313,15 @@
       <c r="A32" s="16">
         <v>41688</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="12">
         <v>1.25</v>
       </c>
@@ -1324,15 +1330,15 @@
       <c r="A33" s="16">
         <v>41689</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="12">
         <v>4</v>
       </c>
@@ -1341,15 +1347,15 @@
       <c r="A34" s="16">
         <v>41691</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="12">
         <v>1</v>
       </c>
@@ -1358,15 +1364,15 @@
       <c r="A35" s="16">
         <v>41692</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="12">
         <v>0.25</v>
       </c>
@@ -1375,15 +1381,15 @@
       <c r="A36" s="16">
         <v>41695</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="12">
         <v>1.5</v>
       </c>
@@ -1392,94 +1398,106 @@
       <c r="A37" s="16">
         <v>41697</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="16">
+        <v>41699</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="16">
+        <v>41701</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="12">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1492,15 +1510,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>51</v>
-      </c>
-      <c r="I46" s="37"/>
+        <v>55.25</v>
+      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1509,6 +1527,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
@@ -1525,34 +1571,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t>Completed the first major draft revision of the software requirements specification document.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document as per Travis's comments and suggestions. Drafted programming language proposal.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document to be in accordance with the client's elucidated requirements.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the changes described by team members.</t>
+  </si>
+  <si>
+    <t>Client meeting. Recorded meeting minutes and client's critiques of the software requirements specification document. Transcribed team members' reports of client's critiques onto the meeting minutes.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the client's criticisms.</t>
+  </si>
+  <si>
+    <t>Updated the prototype. Updated the software requirements specification document according to the client's criticisms.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document to include the testing plan.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document according to the team's criticisms.</t>
+  </si>
+  <si>
+    <t>Client meeting. Recorded meeting minutes and client feedback. Also recorded team milestones.</t>
+  </si>
+  <si>
+    <t>Finished recording meeting minutes. Updated the software requirements specification document in accordance with the client's feedback.</t>
+  </si>
+  <si>
+    <t>Updated the software requirements specification document in accordance with team members' feedback.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Created formal architectural designs from meeting notes.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -421,42 +457,51 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -465,18 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,13 +829,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -810,15 +843,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -827,15 +860,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -844,15 +877,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -861,15 +894,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -878,15 +911,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -895,15 +928,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -912,15 +945,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -929,15 +962,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -946,15 +979,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -963,15 +996,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -980,15 +1013,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -997,15 +1030,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1014,15 +1047,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1031,15 +1064,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1048,15 +1081,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1065,15 +1098,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1082,15 +1115,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1099,15 +1132,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1116,15 +1149,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1133,260 +1166,338 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="21">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="21"/>
+      <c r="A27" s="21">
+        <v>41683</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="20">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="12"/>
+      <c r="A28" s="16">
+        <v>41683</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="16">
+        <v>41684</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="12"/>
+      <c r="A30" s="16">
+        <v>41686</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>41688</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="12"/>
+      <c r="A32" s="16">
+        <v>41688</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="12">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="12"/>
+      <c r="A33" s="16">
+        <v>41689</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="16">
+        <v>41691</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="16">
+        <v>41692</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="12"/>
+      <c r="A36" s="16">
+        <v>41695</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="12"/>
+      <c r="A37" s="16">
+        <v>41697</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="16">
+        <v>41699</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="16">
+        <v>41701</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="12">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1399,15 +1510,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>36.75</v>
-      </c>
-      <c r="I46" s="37"/>
+        <v>55.25</v>
+      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1416,6 +1527,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
@@ -1432,34 +1571,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Created formal architectural designs from meeting notes.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Created formal intermedial designs and team organization diagram from meeting notes.</t>
+  </si>
+  <si>
+    <t>Team meeting and client meeting. Recorded meeting minutes. Drafted architectural design document. Participated in initial discussion of detailed design challenges.</t>
   </si>
 </sst>
 </file>
@@ -814,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:H40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1446,26 +1452,38 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="16">
+        <v>41702</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="12">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="16">
+        <v>41704</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="12">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
@@ -1516,7 +1534,7 @@
       <c r="G46" s="28"/>
       <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>55.25</v>
+        <v>61</v>
       </c>
       <c r="I46" s="29"/>
     </row>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Team meeting and client meeting. Recorded meeting minutes. Drafted architectural design document. Participated in initial discussion of detailed design challenges.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Drafted initial detailed design graphical representation.</t>
   </si>
 </sst>
 </file>
@@ -469,6 +472,18 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -478,13 +493,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -492,30 +519,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:H43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -835,13 +838,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -849,15 +852,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -866,15 +869,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -883,15 +886,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -900,15 +903,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -917,15 +920,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -934,15 +937,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -951,15 +954,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -968,15 +971,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -985,15 +988,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -1002,15 +1005,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -1019,15 +1022,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -1036,15 +1039,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1053,15 +1056,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1070,15 +1073,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1087,15 +1090,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1104,15 +1107,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1121,15 +1124,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1138,15 +1141,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1155,15 +1158,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1172,15 +1175,15 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
@@ -1189,43 +1192,43 @@
       <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1234,15 +1237,15 @@
       <c r="A27" s="21">
         <v>41683</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="20">
         <v>0.75</v>
       </c>
@@ -1251,15 +1254,15 @@
       <c r="A28" s="16">
         <v>41683</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="12">
         <v>1.25</v>
       </c>
@@ -1268,15 +1271,15 @@
       <c r="A29" s="16">
         <v>41684</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="12">
         <v>1.5</v>
       </c>
@@ -1285,15 +1288,15 @@
       <c r="A30" s="16">
         <v>41686</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="12">
         <v>0.5</v>
       </c>
@@ -1302,15 +1305,15 @@
       <c r="A31" s="16">
         <v>41688</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="12">
         <v>1.25</v>
       </c>
@@ -1319,15 +1322,15 @@
       <c r="A32" s="16">
         <v>41688</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="12">
         <v>1.25</v>
       </c>
@@ -1336,15 +1339,15 @@
       <c r="A33" s="16">
         <v>41689</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="12">
         <v>4</v>
       </c>
@@ -1353,15 +1356,15 @@
       <c r="A34" s="16">
         <v>41691</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="12">
         <v>1</v>
       </c>
@@ -1370,15 +1373,15 @@
       <c r="A35" s="16">
         <v>41692</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="12">
         <v>0.25</v>
       </c>
@@ -1387,15 +1390,15 @@
       <c r="A36" s="16">
         <v>41695</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="12">
         <v>1.5</v>
       </c>
@@ -1404,15 +1407,15 @@
       <c r="A37" s="16">
         <v>41697</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="12">
         <v>1</v>
       </c>
@@ -1421,15 +1424,15 @@
       <c r="A38" s="16">
         <v>41699</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="12">
         <v>0.5</v>
       </c>
@@ -1438,15 +1441,15 @@
       <c r="A39" s="16">
         <v>41701</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="12">
         <v>3.75</v>
       </c>
@@ -1455,15 +1458,15 @@
       <c r="A40" s="16">
         <v>41702</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="12">
         <v>2.5</v>
       </c>
@@ -1472,50 +1475,56 @@
       <c r="A41" s="16">
         <v>41704</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="12">
         <v>3.25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="16">
+        <v>41705</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,15 +1537,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29">
+      <c r="G46" s="36"/>
+      <c r="H46" s="37">
         <f>SUM(I5:I44)</f>
-        <v>61</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1545,6 +1554,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1561,34 +1598,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Drafted initial detailed design graphical representation.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Drafted additional detailed design graphical representations.</t>
   </si>
 </sst>
 </file>
@@ -472,36 +475,45 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -510,15 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,7 +827,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,13 +841,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -852,15 +855,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -869,15 +872,15 @@
       <c r="A5" s="13">
         <v>41653</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -886,15 +889,15 @@
       <c r="A6" s="17">
         <v>41660</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="14">
         <v>1.5</v>
       </c>
@@ -903,15 +906,15 @@
       <c r="A7" s="16">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
@@ -920,15 +923,15 @@
       <c r="A8" s="16">
         <v>41662</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -937,15 +940,15 @@
       <c r="A9" s="16">
         <v>41665</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="12">
         <v>0.25</v>
       </c>
@@ -954,15 +957,15 @@
       <c r="A10" s="16">
         <v>41666</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="12">
         <v>2.5</v>
       </c>
@@ -971,15 +974,15 @@
       <c r="A11" s="16">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -988,15 +991,15 @@
       <c r="A12" s="16">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="12">
         <v>1.25</v>
       </c>
@@ -1005,15 +1008,15 @@
       <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="12">
         <v>3.75</v>
       </c>
@@ -1022,15 +1025,15 @@
       <c r="A14" s="16">
         <v>41670</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="12">
         <v>2</v>
       </c>
@@ -1039,15 +1042,15 @@
       <c r="A15" s="16">
         <v>41673</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="12">
         <v>2.25</v>
       </c>
@@ -1056,15 +1059,15 @@
       <c r="A16" s="16">
         <v>41674</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="12">
         <v>1</v>
       </c>
@@ -1073,15 +1076,15 @@
       <c r="A17" s="16">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="12">
         <v>2.15</v>
       </c>
@@ -1090,15 +1093,15 @@
       <c r="A18" s="16">
         <v>41675</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="12">
         <v>1</v>
       </c>
@@ -1107,15 +1110,15 @@
       <c r="A19" s="16">
         <v>41676</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="12">
         <v>3.5</v>
       </c>
@@ -1124,15 +1127,15 @@
       <c r="A20" s="16">
         <v>41676</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="12">
         <v>0.25</v>
       </c>
@@ -1141,15 +1144,15 @@
       <c r="A21" s="16">
         <v>41677</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="12">
         <v>3</v>
       </c>
@@ -1158,15 +1161,15 @@
       <c r="A22" s="16">
         <v>41677</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="12">
         <v>2.25</v>
       </c>
@@ -1175,15 +1178,15 @@
       <c r="A23" s="16">
         <v>41678</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="12">
         <v>4</v>
       </c>
@@ -1192,43 +1195,43 @@
       <c r="A24" s="21">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="20">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1237,15 +1240,15 @@
       <c r="A27" s="21">
         <v>41683</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="20">
         <v>0.75</v>
       </c>
@@ -1254,15 +1257,15 @@
       <c r="A28" s="16">
         <v>41683</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="12">
         <v>1.25</v>
       </c>
@@ -1271,15 +1274,15 @@
       <c r="A29" s="16">
         <v>41684</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="12">
         <v>1.5</v>
       </c>
@@ -1288,15 +1291,15 @@
       <c r="A30" s="16">
         <v>41686</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="12">
         <v>0.5</v>
       </c>
@@ -1305,15 +1308,15 @@
       <c r="A31" s="16">
         <v>41688</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="12">
         <v>1.25</v>
       </c>
@@ -1322,15 +1325,15 @@
       <c r="A32" s="16">
         <v>41688</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="12">
         <v>1.25</v>
       </c>
@@ -1339,15 +1342,15 @@
       <c r="A33" s="16">
         <v>41689</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="12">
         <v>4</v>
       </c>
@@ -1356,15 +1359,15 @@
       <c r="A34" s="16">
         <v>41691</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="12">
         <v>1</v>
       </c>
@@ -1373,15 +1376,15 @@
       <c r="A35" s="16">
         <v>41692</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="12">
         <v>0.25</v>
       </c>
@@ -1390,15 +1393,15 @@
       <c r="A36" s="16">
         <v>41695</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="12">
         <v>1.5</v>
       </c>
@@ -1407,15 +1410,15 @@
       <c r="A37" s="16">
         <v>41697</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="12">
         <v>1</v>
       </c>
@@ -1424,15 +1427,15 @@
       <c r="A38" s="16">
         <v>41699</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="12">
         <v>0.5</v>
       </c>
@@ -1441,15 +1444,15 @@
       <c r="A39" s="16">
         <v>41701</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="12">
         <v>3.75</v>
       </c>
@@ -1458,15 +1461,15 @@
       <c r="A40" s="16">
         <v>41702</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="12">
         <v>2.5</v>
       </c>
@@ -1475,15 +1478,15 @@
       <c r="A41" s="16">
         <v>41704</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="12">
         <v>3.25</v>
       </c>
@@ -1492,39 +1495,45 @@
       <c r="A42" s="16">
         <v>41705</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="16">
+        <v>41706</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="12">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,15 +1546,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37">
+      <c r="G46" s="28"/>
+      <c r="H46" s="29">
         <f>SUM(I5:I44)</f>
-        <v>65</v>
-      </c>
-      <c r="I46" s="37"/>
+        <v>68.5</v>
+      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1554,6 +1563,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
@@ -1570,34 +1607,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Drafted additional detailed design graphical representations.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Updated detailed design graphical representations.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -442,9 +445,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -475,6 +475,18 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -484,13 +496,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -498,30 +522,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,7 +827,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -855,686 +855,692 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="14">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="12">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="12">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="12">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="12">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="11">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="12">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="12">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="12">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="11">
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="12">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="12">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="11">
         <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="12">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="12">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="11">
         <v>2.15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="12">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="12">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="11">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="12">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="12">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="12">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="11">
         <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="12">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="20">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="20">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="19">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="12">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="12">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="12">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="12">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="12">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="12">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="12">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="12">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="12">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="12">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="12">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="12">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="11">
         <v>3.75</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>41702</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="12">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="11">
         <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>41704</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="12">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="11">
         <v>3.25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>41705</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="12">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>41706</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="12">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="11">
         <v>3.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="15">
+        <v>41707</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="11">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -1546,15 +1552,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29">
+      <c r="G46" s="35"/>
+      <c r="H46" s="36">
         <f>SUM(I5:I44)</f>
-        <v>68.5</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1563,6 +1569,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1579,34 +1613,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Created formal architectural designs from meeting notes.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Created formal intermedial designs and team organization diagram from meeting notes.</t>
+  </si>
+  <si>
+    <t>Team meeting and client meeting. Recorded meeting minutes. Drafted architectural design document. Participated in initial discussion of detailed design challenges.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Drafted initial detailed design graphical representation.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Drafted additional detailed design graphical representations.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Updated detailed design graphical representations.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -430,9 +445,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -463,6 +475,18 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -472,13 +496,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -486,30 +522,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +827,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:H40"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,13 +841,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -843,662 +855,692 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="14">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="12">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="12">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="12">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="12">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="11">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="12">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="12">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="12">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="11">
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="12">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="12">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="11">
         <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="12">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="12">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="11">
         <v>2.15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="12">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="12">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="11">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="12">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="12">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="12">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="11">
         <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="12">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="20">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="20">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="19">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="12">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="12">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="12">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="12">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="12">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="11">
         <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="12">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="12">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="12">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="12">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="12">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="12">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="12">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="11">
         <v>3.75</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="12"/>
+      <c r="A40" s="15">
+        <v>41702</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="12"/>
+      <c r="A41" s="15">
+        <v>41704</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="11">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="12"/>
+      <c r="A42" s="15">
+        <v>41705</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="12"/>
+      <c r="A43" s="15">
+        <v>41706</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="11">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="12"/>
+      <c r="A44" s="15">
+        <v>41707</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="11">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -1510,15 +1552,15 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29">
+      <c r="G46" s="35"/>
+      <c r="H46" s="36">
         <f>SUM(I5:I44)</f>
-        <v>55.25</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
@@ -1527,6 +1569,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1543,34 +1613,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Updated detailed design graphical representations.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Updated frontend architectural design graphical representation. Updated all detailed design graphical representations. Created new backend dataflow diagram graphical representations.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -421,11 +424,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -475,36 +515,48 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -514,14 +566,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,13 +896,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -855,15 +910,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -872,15 +927,15 @@
       <c r="A5" s="12">
         <v>41653</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -889,15 +944,15 @@
       <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="13">
         <v>1.5</v>
       </c>
@@ -906,15 +961,15 @@
       <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="11">
         <v>0.75</v>
       </c>
@@ -923,15 +978,15 @@
       <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
@@ -940,15 +995,15 @@
       <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="11">
         <v>0.25</v>
       </c>
@@ -957,15 +1012,15 @@
       <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="11">
         <v>2.5</v>
       </c>
@@ -974,15 +1029,15 @@
       <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -991,15 +1046,15 @@
       <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="11">
         <v>1.25</v>
       </c>
@@ -1008,15 +1063,15 @@
       <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="11">
         <v>3.75</v>
       </c>
@@ -1025,15 +1080,15 @@
       <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="11">
         <v>2</v>
       </c>
@@ -1042,15 +1097,15 @@
       <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="11">
         <v>2.25</v>
       </c>
@@ -1059,15 +1114,15 @@
       <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="11">
         <v>1</v>
       </c>
@@ -1076,15 +1131,15 @@
       <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="11">
         <v>2.15</v>
       </c>
@@ -1093,15 +1148,15 @@
       <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -1110,15 +1165,15 @@
       <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="11">
         <v>3.5</v>
       </c>
@@ -1127,15 +1182,15 @@
       <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="11">
         <v>0.25</v>
       </c>
@@ -1144,15 +1199,15 @@
       <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="11">
         <v>3</v>
       </c>
@@ -1161,15 +1216,15 @@
       <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="11">
         <v>2.25</v>
       </c>
@@ -1178,15 +1233,15 @@
       <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -1195,43 +1250,43 @@
       <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1240,15 +1295,15 @@
       <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="19">
         <v>0.75</v>
       </c>
@@ -1257,15 +1312,15 @@
       <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="11">
         <v>1.25</v>
       </c>
@@ -1274,15 +1329,15 @@
       <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
@@ -1291,15 +1346,15 @@
       <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="11">
         <v>0.5</v>
       </c>
@@ -1308,15 +1363,15 @@
       <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="11">
         <v>1.25</v>
       </c>
@@ -1325,15 +1380,15 @@
       <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="11">
         <v>1.25</v>
       </c>
@@ -1342,15 +1397,15 @@
       <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="11">
         <v>4</v>
       </c>
@@ -1359,15 +1414,15 @@
       <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="11">
         <v>1</v>
       </c>
@@ -1376,15 +1431,15 @@
       <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="11">
         <v>0.25</v>
       </c>
@@ -1393,15 +1448,15 @@
       <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="11">
         <v>1.5</v>
       </c>
@@ -1410,15 +1465,15 @@
       <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="11">
         <v>1</v>
       </c>
@@ -1427,15 +1482,15 @@
       <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="11">
         <v>0.5</v>
       </c>
@@ -1444,15 +1499,15 @@
       <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="11">
         <v>3.75</v>
       </c>
@@ -1461,15 +1516,15 @@
       <c r="A40" s="15">
         <v>41702</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="11">
         <v>2.5</v>
       </c>
@@ -1478,15 +1533,15 @@
       <c r="A41" s="15">
         <v>41704</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="11">
         <v>3.25</v>
       </c>
@@ -1495,15 +1550,15 @@
       <c r="A42" s="15">
         <v>41705</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="11">
         <v>4</v>
       </c>
@@ -1512,15 +1567,15 @@
       <c r="A43" s="15">
         <v>41706</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="11">
         <v>3.5</v>
       </c>
@@ -1529,74 +1584,158 @@
       <c r="A44" s="15">
         <v>41707</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="11">
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="35" t="s">
+    <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>41709</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36">
-        <f>SUM(I5:I44)</f>
-        <v>72</v>
-      </c>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="I47" s="2"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29">
+        <f>SUM(I5:I53)</f>
+        <v>77.5</v>
+      </c>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="I56" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
+  <mergeCells count="52">
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1613,6 +1752,34 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Updated frontend architectural design graphical representation. Updated all detailed design graphical representations. Created new backend dataflow diagram graphical representations.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Created additional dataflow diagrams.</t>
   </si>
 </sst>
 </file>
@@ -518,6 +521,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -527,13 +563,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -541,42 +580,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,13 +899,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -910,15 +913,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -927,15 +930,15 @@
       <c r="A5" s="12">
         <v>41653</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -944,15 +947,15 @@
       <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="13">
         <v>1.5</v>
       </c>
@@ -961,15 +964,15 @@
       <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="11">
         <v>0.75</v>
       </c>
@@ -978,15 +981,15 @@
       <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
@@ -995,15 +998,15 @@
       <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="11">
         <v>0.25</v>
       </c>
@@ -1012,15 +1015,15 @@
       <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="11">
         <v>2.5</v>
       </c>
@@ -1029,15 +1032,15 @@
       <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -1046,15 +1049,15 @@
       <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="11">
         <v>1.25</v>
       </c>
@@ -1063,15 +1066,15 @@
       <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="11">
         <v>3.75</v>
       </c>
@@ -1080,15 +1083,15 @@
       <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="11">
         <v>2</v>
       </c>
@@ -1097,15 +1100,15 @@
       <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="11">
         <v>2.25</v>
       </c>
@@ -1114,15 +1117,15 @@
       <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="11">
         <v>1</v>
       </c>
@@ -1131,15 +1134,15 @@
       <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="11">
         <v>2.15</v>
       </c>
@@ -1148,15 +1151,15 @@
       <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -1165,15 +1168,15 @@
       <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="11">
         <v>3.5</v>
       </c>
@@ -1182,15 +1185,15 @@
       <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="11">
         <v>0.25</v>
       </c>
@@ -1199,15 +1202,15 @@
       <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="11">
         <v>3</v>
       </c>
@@ -1216,15 +1219,15 @@
       <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="11">
         <v>2.25</v>
       </c>
@@ -1233,15 +1236,15 @@
       <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -1250,43 +1253,43 @@
       <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1295,15 +1298,15 @@
       <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="19">
         <v>0.75</v>
       </c>
@@ -1312,15 +1315,15 @@
       <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="11">
         <v>1.25</v>
       </c>
@@ -1329,15 +1332,15 @@
       <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
@@ -1346,15 +1349,15 @@
       <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="11">
         <v>0.5</v>
       </c>
@@ -1363,15 +1366,15 @@
       <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="11">
         <v>1.25</v>
       </c>
@@ -1380,15 +1383,15 @@
       <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="11">
         <v>1.25</v>
       </c>
@@ -1397,15 +1400,15 @@
       <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="11">
         <v>4</v>
       </c>
@@ -1414,15 +1417,15 @@
       <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="11">
         <v>1</v>
       </c>
@@ -1431,15 +1434,15 @@
       <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="11">
         <v>0.25</v>
       </c>
@@ -1448,15 +1451,15 @@
       <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="11">
         <v>1.5</v>
       </c>
@@ -1465,15 +1468,15 @@
       <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="11">
         <v>1</v>
       </c>
@@ -1482,15 +1485,15 @@
       <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="11">
         <v>0.5</v>
       </c>
@@ -1499,15 +1502,15 @@
       <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="11">
         <v>3.75</v>
       </c>
@@ -1516,15 +1519,15 @@
       <c r="A40" s="15">
         <v>41702</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="11">
         <v>2.5</v>
       </c>
@@ -1533,15 +1536,15 @@
       <c r="A41" s="15">
         <v>41704</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="11">
         <v>3.25</v>
       </c>
@@ -1550,15 +1553,15 @@
       <c r="A42" s="15">
         <v>41705</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="11">
         <v>4</v>
       </c>
@@ -1567,15 +1570,15 @@
       <c r="A43" s="15">
         <v>41706</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="11">
         <v>3.5</v>
       </c>
@@ -1584,15 +1587,15 @@
       <c r="A44" s="15">
         <v>41707</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="11">
         <v>3.5</v>
       </c>
@@ -1601,50 +1604,56 @@
       <c r="A45" s="15">
         <v>41709</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="11">
         <v>5.5</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="15">
+        <v>41711</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,50 +1664,50 @@
       <c r="A50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,15 +1720,15 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29">
+      <c r="G55" s="40"/>
+      <c r="H55" s="41">
         <f>SUM(I5:I53)</f>
-        <v>77.5</v>
-      </c>
-      <c r="I55" s="29"/>
+        <v>81.5</v>
+      </c>
+      <c r="I55" s="41"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F56" s="7"/>
@@ -1728,14 +1737,34 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1752,34 +1781,14 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Team meeting. Recorded meeting minutes. Created additional dataflow diagrams.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes.</t>
+  </si>
+  <si>
+    <t>Optional team meeting. Recorded meeting minutes.</t>
   </si>
 </sst>
 </file>
@@ -524,6 +530,15 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -533,6 +548,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +563,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -550,36 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I56"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:H48"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,13 +905,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -913,15 +919,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -947,15 +953,15 @@
       <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="13">
         <v>1.5</v>
       </c>
@@ -964,15 +970,15 @@
       <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="11">
         <v>0.75</v>
       </c>
@@ -981,15 +987,15 @@
       <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
@@ -998,15 +1004,15 @@
       <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="11">
         <v>0.25</v>
       </c>
@@ -1015,15 +1021,15 @@
       <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="11">
         <v>2.5</v>
       </c>
@@ -1032,15 +1038,15 @@
       <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -1049,15 +1055,15 @@
       <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="11">
         <v>1.25</v>
       </c>
@@ -1066,15 +1072,15 @@
       <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="11">
         <v>3.75</v>
       </c>
@@ -1083,15 +1089,15 @@
       <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="11">
         <v>2</v>
       </c>
@@ -1100,15 +1106,15 @@
       <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="11">
         <v>2.25</v>
       </c>
@@ -1117,15 +1123,15 @@
       <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="11">
         <v>1</v>
       </c>
@@ -1134,15 +1140,15 @@
       <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="11">
         <v>2.15</v>
       </c>
@@ -1151,15 +1157,15 @@
       <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -1168,15 +1174,15 @@
       <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="11">
         <v>3.5</v>
       </c>
@@ -1185,15 +1191,15 @@
       <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="11">
         <v>0.25</v>
       </c>
@@ -1202,15 +1208,15 @@
       <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="11">
         <v>3</v>
       </c>
@@ -1219,15 +1225,15 @@
       <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="11">
         <v>2.25</v>
       </c>
@@ -1236,15 +1242,15 @@
       <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -1253,43 +1259,43 @@
       <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1298,15 +1304,15 @@
       <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="19">
         <v>0.75</v>
       </c>
@@ -1315,15 +1321,15 @@
       <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="11">
         <v>1.25</v>
       </c>
@@ -1332,15 +1338,15 @@
       <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
@@ -1349,15 +1355,15 @@
       <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="11">
         <v>0.5</v>
       </c>
@@ -1366,15 +1372,15 @@
       <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="11">
         <v>1.25</v>
       </c>
@@ -1383,15 +1389,15 @@
       <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="11">
         <v>1.25</v>
       </c>
@@ -1400,15 +1406,15 @@
       <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="11">
         <v>4</v>
       </c>
@@ -1417,15 +1423,15 @@
       <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="11">
         <v>1</v>
       </c>
@@ -1434,15 +1440,15 @@
       <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="11">
         <v>0.25</v>
       </c>
@@ -1451,15 +1457,15 @@
       <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="11">
         <v>1.5</v>
       </c>
@@ -1468,15 +1474,15 @@
       <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="11">
         <v>1</v>
       </c>
@@ -1485,15 +1491,15 @@
       <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="11">
         <v>0.5</v>
       </c>
@@ -1502,15 +1508,15 @@
       <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="11">
         <v>3.75</v>
       </c>
@@ -1519,15 +1525,15 @@
       <c r="A40" s="15">
         <v>41702</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="11">
         <v>2.5</v>
       </c>
@@ -1536,15 +1542,15 @@
       <c r="A41" s="15">
         <v>41704</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="11">
         <v>3.25</v>
       </c>
@@ -1553,15 +1559,15 @@
       <c r="A42" s="15">
         <v>41705</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="11">
         <v>4</v>
       </c>
@@ -1570,15 +1576,15 @@
       <c r="A43" s="15">
         <v>41706</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="11">
         <v>3.5</v>
       </c>
@@ -1587,15 +1593,15 @@
       <c r="A44" s="15">
         <v>41707</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="11">
         <v>3.5</v>
       </c>
@@ -1604,15 +1610,15 @@
       <c r="A45" s="15">
         <v>41709</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="11">
         <v>5.5</v>
       </c>
@@ -1621,40 +1627,52 @@
       <c r="A46" s="15">
         <v>41711</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="15">
+        <v>41712</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="22">
+        <v>41713</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
@@ -1664,107 +1682,141 @@
       <c r="A50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="15">
+        <v>41714</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="40" t="s">
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="41">
-        <f>SUM(I5:I53)</f>
-        <v>81.5</v>
-      </c>
-      <c r="I55" s="41"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="I56" s="2"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30">
+        <f>SUM(I5:I57)</f>
+        <v>90.5</v>
+      </c>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="I60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
+  <mergeCells count="56">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1781,14 +1833,34 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Optional team meeting. Recorded meeting minutes.</t>
+  </si>
+  <si>
+    <t>Created initial versions of data encapsulation classes (i.e., Memory and Register) to be used by the Simulator.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Compiled and printed client questions.</t>
+  </si>
+  <si>
+    <t>Client meeting. Recorded client responses. Transcribed team members' notes.</t>
   </si>
 </sst>
 </file>
@@ -530,6 +539,36 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -539,13 +578,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -553,39 +595,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,13 +914,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -919,15 +928,15 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
@@ -953,15 +962,15 @@
       <c r="A6" s="16">
         <v>41660</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="13">
         <v>1.5</v>
       </c>
@@ -970,15 +979,15 @@
       <c r="A7" s="15">
         <v>41660</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="11">
         <v>0.75</v>
       </c>
@@ -987,15 +996,15 @@
       <c r="A8" s="15">
         <v>41662</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
@@ -1004,15 +1013,15 @@
       <c r="A9" s="15">
         <v>41665</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="11">
         <v>0.25</v>
       </c>
@@ -1021,15 +1030,15 @@
       <c r="A10" s="15">
         <v>41666</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="11">
         <v>2.5</v>
       </c>
@@ -1038,15 +1047,15 @@
       <c r="A11" s="15">
         <v>41667</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="11">
         <v>1.1000000000000001</v>
       </c>
@@ -1055,15 +1064,15 @@
       <c r="A12" s="15">
         <v>41667</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="11">
         <v>1.25</v>
       </c>
@@ -1072,15 +1081,15 @@
       <c r="A13" s="15">
         <v>41670</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="11">
         <v>3.75</v>
       </c>
@@ -1089,15 +1098,15 @@
       <c r="A14" s="15">
         <v>41670</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="11">
         <v>2</v>
       </c>
@@ -1106,15 +1115,15 @@
       <c r="A15" s="15">
         <v>41673</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="11">
         <v>2.25</v>
       </c>
@@ -1123,15 +1132,15 @@
       <c r="A16" s="15">
         <v>41674</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="11">
         <v>1</v>
       </c>
@@ -1140,15 +1149,15 @@
       <c r="A17" s="15">
         <v>41674</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="11">
         <v>2.15</v>
       </c>
@@ -1157,15 +1166,15 @@
       <c r="A18" s="15">
         <v>41675</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -1174,15 +1183,15 @@
       <c r="A19" s="15">
         <v>41676</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="11">
         <v>3.5</v>
       </c>
@@ -1191,15 +1200,15 @@
       <c r="A20" s="15">
         <v>41676</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="11">
         <v>0.25</v>
       </c>
@@ -1208,15 +1217,15 @@
       <c r="A21" s="15">
         <v>41677</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="11">
         <v>3</v>
       </c>
@@ -1225,15 +1234,15 @@
       <c r="A22" s="15">
         <v>41677</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="11">
         <v>2.25</v>
       </c>
@@ -1242,15 +1251,15 @@
       <c r="A23" s="15">
         <v>41678</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -1259,43 +1268,43 @@
       <c r="A24" s="20">
         <v>41678</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="19">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1304,15 +1313,15 @@
       <c r="A27" s="20">
         <v>41683</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="19">
         <v>0.75</v>
       </c>
@@ -1321,15 +1330,15 @@
       <c r="A28" s="15">
         <v>41683</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="11">
         <v>1.25</v>
       </c>
@@ -1338,15 +1347,15 @@
       <c r="A29" s="15">
         <v>41684</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="11">
         <v>1.5</v>
       </c>
@@ -1355,15 +1364,15 @@
       <c r="A30" s="15">
         <v>41686</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="11">
         <v>0.5</v>
       </c>
@@ -1372,15 +1381,15 @@
       <c r="A31" s="15">
         <v>41688</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="11">
         <v>1.25</v>
       </c>
@@ -1389,15 +1398,15 @@
       <c r="A32" s="15">
         <v>41688</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="11">
         <v>1.25</v>
       </c>
@@ -1406,15 +1415,15 @@
       <c r="A33" s="15">
         <v>41689</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="11">
         <v>4</v>
       </c>
@@ -1423,15 +1432,15 @@
       <c r="A34" s="15">
         <v>41691</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="11">
         <v>1</v>
       </c>
@@ -1440,15 +1449,15 @@
       <c r="A35" s="15">
         <v>41692</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="11">
         <v>0.25</v>
       </c>
@@ -1457,15 +1466,15 @@
       <c r="A36" s="15">
         <v>41695</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="11">
         <v>1.5</v>
       </c>
@@ -1474,15 +1483,15 @@
       <c r="A37" s="15">
         <v>41697</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="11">
         <v>1</v>
       </c>
@@ -1491,15 +1500,15 @@
       <c r="A38" s="15">
         <v>41699</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="11">
         <v>0.5</v>
       </c>
@@ -1508,15 +1517,15 @@
       <c r="A39" s="15">
         <v>41701</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="11">
         <v>3.75</v>
       </c>
@@ -1525,15 +1534,15 @@
       <c r="A40" s="15">
         <v>41702</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="11">
         <v>2.5</v>
       </c>
@@ -1542,15 +1551,15 @@
       <c r="A41" s="15">
         <v>41704</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="11">
         <v>3.25</v>
       </c>
@@ -1559,15 +1568,15 @@
       <c r="A42" s="15">
         <v>41705</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="11">
         <v>4</v>
       </c>
@@ -1576,15 +1585,15 @@
       <c r="A43" s="15">
         <v>41706</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="11">
         <v>3.5</v>
       </c>
@@ -1593,15 +1602,15 @@
       <c r="A44" s="15">
         <v>41707</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="11">
         <v>3.5</v>
       </c>
@@ -1610,15 +1619,15 @@
       <c r="A45" s="15">
         <v>41709</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="11">
         <v>5.5</v>
       </c>
@@ -1627,15 +1636,15 @@
       <c r="A46" s="15">
         <v>41711</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="11">
         <v>4</v>
       </c>
@@ -1644,15 +1653,15 @@
       <c r="A47" s="15">
         <v>41712</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="11">
         <v>3</v>
       </c>
@@ -1661,15 +1670,15 @@
       <c r="A48" s="22">
         <v>41713</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="19">
         <v>3</v>
       </c>
@@ -1682,100 +1691,124 @@
       <c r="A50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
-        <v>41714</v>
-      </c>
-      <c r="B51" s="39" t="s">
+        <v>41715</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="15">
+        <v>41716</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="15">
+        <v>41718</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="15">
+        <v>41718</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="15">
+        <v>41723</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,15 +1821,15 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30">
+      <c r="G59" s="40"/>
+      <c r="H59" s="41">
         <f>SUM(I5:I57)</f>
-        <v>90.5</v>
-      </c>
-      <c r="I59" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="I59" s="41"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60" s="7"/>
@@ -1805,18 +1838,34 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1833,34 +1882,18 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Work Logs/Michael Beaver.xlsx
+++ b/Documents/Work Logs/Michael Beaver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t>Client meeting. Recorded client responses. Transcribed team members' notes.</t>
+  </si>
+  <si>
+    <t>Printed all emails to date and meeting minutes from January and Febraury.</t>
+  </si>
+  <si>
+    <t>Experimented with C# String and Byte classes for Memory and Register representation.</t>
+  </si>
+  <si>
+    <t>Group programming with Andrew, Travis, and Clay via TeamViewer and Skype.</t>
+  </si>
+  <si>
+    <t>Programmed all Data encapsulation classes (Memory, Register, and PSW).</t>
+  </si>
+  <si>
+    <t>Refined Data encapsulation classes. Created test methods for Memory, Register, and PSW classes.</t>
+  </si>
+  <si>
+    <t>Completed Data encapsulation test program.</t>
+  </si>
+  <si>
+    <t>Team meeting. Recorded meeting minutes. Group programming with Andrew, Traivs, Clay, and Drew. Implemented AssistByte. Updated all Data encapsulation tests. Aided with Assembler programming.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -493,13 +514,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -539,6 +556,15 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -548,6 +574,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,6 +592,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -565,36 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I60"/>
+  <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:H56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -914,13 +937,13 @@
   <sheetData>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -928,758 +951,758 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>41653</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="10">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>41660</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="13">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>41660</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="11">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="7">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>41662</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="11">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>41665</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="11">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>41666</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="11">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>41667</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="11">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="7">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>41667</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="11">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="7">
         <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>41670</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="11">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="7">
         <v>3.75</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>41670</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="11">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>41673</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="11">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="7">
         <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>41674</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="11">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>41674</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="11">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="7">
         <v>2.15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>41675</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="11">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>41676</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="11">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>41676</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="11">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="11">
         <v>41677</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="11">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>41677</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="11">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="7">
         <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>41678</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="11">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>41678</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="19">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="15">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+      <c r="A27" s="16">
         <v>41683</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="19">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="15">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>41683</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="11">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="7">
         <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>41684</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="11">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="11">
         <v>41686</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="11">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="11">
         <v>41688</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="11">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="7">
         <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>41688</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="11">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="7">
         <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="11">
         <v>41689</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="11">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>41691</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="11">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>41692</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="11">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="7">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="11">
         <v>41695</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="11">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="11">
         <v>41697</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="11">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>41699</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="11">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="11">
         <v>41701</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="11">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="7">
         <v>3.75</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>41702</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="11">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>41704</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="11">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="7">
         <v>3.25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="11">
         <v>41705</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="11">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="11">
         <v>41706</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="11">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="11">
         <v>41707</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="11">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="11">
         <v>41709</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="11">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="7">
         <v>5.5</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="11">
         <v>41711</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="11">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="11">
         <v>41712</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="11">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="A48" s="18">
         <v>41713</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="19">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1688,162 +1711,281 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>41715</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="11">
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>41716</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="11">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>41718</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="11">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+      <c r="A54" s="11">
         <v>41718</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="11">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="11">
         <v>41723</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="11">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="11">
+        <v>41724</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="40" t="s">
+      <c r="A57" s="11">
+        <v>41725</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>41725</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>41726</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>41726</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>41726</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>41727</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41">
-        <f>SUM(I5:I57)</f>
-        <v>101</v>
-      </c>
-      <c r="I59" s="41"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="2"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="35">
+        <f>SUM(I5:I62)</f>
+        <v>128</v>
+      </c>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="I65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="61">
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B61:H61"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B44:H44"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
@@ -1855,17 +1997,14 @@
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B58:H58"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B27:H27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B9:H9"/>
@@ -1882,18 +2021,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
